--- a/VMware/虚拟机配置文档.xlsx
+++ b/VMware/虚拟机配置文档.xlsx
@@ -55,10 +55,12 @@
   </si>
   <si>
     <t>hadoop-2.6.5：/usr/local/hadoop-2.6.5
-zookeeper-3.3.6：/usr/local/zookeeper-3.3.6</t>
-  </si>
-  <si>
-    <t>namenode，zookeeper</t>
+zookeeper-3.3.6：/usr/local/zookeeper-3.3.6
+spark-2.1.0：/usr/local/spark-2.1.0
+jdk1.8：/usr/local/jdk1.8.0_171</t>
+  </si>
+  <si>
+    <t>namenode，zookeeper，spark</t>
   </si>
   <si>
     <t>192.168.137.142</t>
@@ -68,7 +70,8 @@
   </si>
   <si>
     <t>hadoop-2.6.5：/usr/local/hadoop-2.6.5
-zookeeper-3.3.6：/usr/local/zookeeper-3.3.7</t>
+zookeeper-3.3.6：/usr/local/zookeeper-3.3.7
+jdk1.7：/usr/java/jdk1.7.0_80</t>
   </si>
   <si>
     <t>namenode，datanode，journal node，zookeeper</t>
@@ -81,7 +84,8 @@
   </si>
   <si>
     <t>hadoop-2.6.5：/usr/local/hadoop-2.6.5
-zookeeper-3.3.6：/usr/local/zookeeper-3.3.8</t>
+zookeeper-3.3.6：/usr/local/zookeeper-3.3.8
+jdk1.7：/usr/java/jdk1.7.0_80</t>
   </si>
   <si>
     <t>datanode，journal node，zookeeper</t>
@@ -94,7 +98,8 @@
   </si>
   <si>
     <t>hadoop-2.6.5：/usr/local/hadoop-2.6.5
-zookeeper-3.3.6：/usr/local/zookeeper-3.3.9</t>
+zookeeper-3.3.6：/usr/local/zookeeper-3.3.9
+jdk1.7：/usr/java/jdk1.7.0_80</t>
   </si>
   <si>
     <t>datanode，journal node</t>
@@ -105,12 +110,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,82 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,14 +148,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,7 +254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,25 +262,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -279,13 +277,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,19 +391,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,145 +427,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,11 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,15 +520,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -537,6 +532,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,17 +560,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,148 +573,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1076,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1114,7 +1112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:7">
+    <row r="2" ht="54" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" ht="40.5" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1160,7 +1158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:7">
+    <row r="4" ht="40.5" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1183,7 +1181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:7">
+    <row r="5" ht="40.5" spans="1:7">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/VMware/虚拟机配置文档.xlsx
+++ b/VMware/虚拟机配置文档.xlsx
@@ -56,11 +56,12 @@
   <si>
     <t>hadoop-2.6.5：/usr/local/hadoop-2.6.5
 zookeeper-3.3.6：/usr/local/zookeeper-3.3.6
-spark-2.1.0：/usr/local/spark-2.1.0
-jdk1.8：/usr/local/jdk1.8.0_171</t>
-  </si>
-  <si>
-    <t>namenode，zookeeper，spark</t>
+spark-2.2.0：/usr/local/spark-2.2.0-bin-hadoop2.6
+jdk1.8：/usr/local/jdk1.8.0_171
+hive0.13.1：/usr/local/apache-hive-0.13.1-bin</t>
+  </si>
+  <si>
+    <t>namenode，zookeeper，spark，hive</t>
   </si>
   <si>
     <t>192.168.137.142</t>
@@ -125,9 +126,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,12 +225,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -162,7 +240,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,99 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,36 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,20 +498,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +535,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -568,6 +558,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,7 +1077,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F7:F8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1112,7 +1113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:7">
+    <row r="2" ht="67.5" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>

--- a/VMware/虚拟机配置文档.xlsx
+++ b/VMware/虚拟机配置文档.xlsx
@@ -72,10 +72,11 @@
   <si>
     <t>hadoop-2.6.5：/usr/local/hadoop-2.6.5
 zookeeper-3.3.6：/usr/local/zookeeper-3.3.7
-jdk1.7：/usr/java/jdk1.7.0_80</t>
-  </si>
-  <si>
-    <t>namenode，datanode，journal node，zookeeper</t>
+jdk1.8：/usr/local/jdk1.8.0_171
+kafka0.9.0.0：/usr/local/kafka_2.11-0.9.0.0</t>
+  </si>
+  <si>
+    <t>namenode，datanode，journal node，zookeeper，kafka</t>
   </si>
   <si>
     <t>192.168.137.143</t>
@@ -86,10 +87,11 @@
   <si>
     <t>hadoop-2.6.5：/usr/local/hadoop-2.6.5
 zookeeper-3.3.6：/usr/local/zookeeper-3.3.8
-jdk1.7：/usr/java/jdk1.7.0_80</t>
-  </si>
-  <si>
-    <t>datanode，journal node，zookeeper</t>
+jdk1.8：/usr/local/jdk1.8.0_171
+flume1.6.0：/usr/local/apache-flume-1.6.0-bin</t>
+  </si>
+  <si>
+    <t>datanode，journal node，zookeeper，flume</t>
   </si>
   <si>
     <t>192.168.137.144</t>
@@ -100,10 +102,11 @@
   <si>
     <t>hadoop-2.6.5：/usr/local/hadoop-2.6.5
 zookeeper-3.3.6：/usr/local/zookeeper-3.3.9
-jdk1.7：/usr/java/jdk1.7.0_80</t>
-  </si>
-  <si>
-    <t>datanode，journal node</t>
+jdk1.8：/usr/local/jdk1.8.0_171
+mysql5.6.40</t>
+  </si>
+  <si>
+    <t>datanode，journal node，mysql</t>
   </si>
 </sst>
 </file>
@@ -111,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,6 +128,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -132,9 +158,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,53 +173,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,24 +235,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,30 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,35 +475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +499,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,11 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +563,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1136,7 +1139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:7">
+    <row r="3" ht="54" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:7">
+    <row r="4" ht="54" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:7">
+    <row r="5" ht="54" spans="1:7">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/VMware/虚拟机配置文档.xlsx
+++ b/VMware/虚拟机配置文档.xlsx
@@ -58,7 +58,7 @@
 zookeeper-3.3.6：/usr/local/zookeeper-3.3.6
 spark-2.2.0：/usr/local/spark-2.2.0-bin-hadoop2.6
 jdk1.8：/usr/local/jdk1.8.0_171
-hive0.13.1：/usr/local/apache-hive-0.13.1-bin</t>
+hive-0.13.1：/usr/local/apache-hive-0.13.1-bin</t>
   </si>
   <si>
     <t>namenode，zookeeper，spark，hive</t>
@@ -88,10 +88,11 @@
     <t>hadoop-2.6.5：/usr/local/hadoop-2.6.5
 zookeeper-3.3.6：/usr/local/zookeeper-3.3.8
 jdk1.8：/usr/local/jdk1.8.0_171
-flume1.6.0：/usr/local/apache-flume-1.6.0-bin</t>
-  </si>
-  <si>
-    <t>datanode，journal node，zookeeper，flume</t>
+flume-1.6.0：/usr/local/apache-flume-1.6.0-bin
+canel-1.0.24</t>
+  </si>
+  <si>
+    <t>datanode，journal node，zookeeper，flume，cannel</t>
   </si>
   <si>
     <t>192.168.137.144</t>
@@ -103,7 +104,7 @@
     <t>hadoop-2.6.5：/usr/local/hadoop-2.6.5
 zookeeper-3.3.6：/usr/local/zookeeper-3.3.9
 jdk1.8：/usr/local/jdk1.8.0_171
-mysql5.6.40</t>
+mysql-5.6.40</t>
   </si>
   <si>
     <t>datanode，journal node，mysql</t>
@@ -114,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,11 +129,85 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,6 +219,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -151,115 +242,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +282,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,7 +354,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,31 +384,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,127 +426,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,15 +473,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,6 +487,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,36 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -580,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1081,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1162,7 +1163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:7">
+    <row r="4" ht="67.5" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
